--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnnaReportesOperativos4\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD423C0-54FA-42CF-A8CA-A874B976C48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F28F7-E2B5-4968-951F-8A01C4447746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1A8A820-0DC8-4494-B741-8ACF5A2C6F65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E1A8A820-0DC8-4494-B741-8ACF5A2C6F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,10 @@
     <definedName name="ProductoGlpCgn_Items">Hoja1!$B$22:$E$23</definedName>
     <definedName name="ProductoParaReproceso_Items">Hoja1!$B$10:$E$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -124,6 +115,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -308,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -342,14 +336,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -357,6 +366,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,15 +389,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,59 +770,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849CC9BB-3F6A-4ED2-8708-37259B7D1880}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="18"/>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="18"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="18"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="19" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="18"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="21" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -827,11 +830,11 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="18"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="26" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -839,14 +842,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="30">
       <c r="B9" s="2" t="s">
@@ -862,14 +865,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -882,7 +885,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="30">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -903,19 +906,20 @@
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="12" customHeight="1">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
+    <row r="16" spans="1:6" ht="12" customHeight="1"/>
     <row r="17" spans="2:5" ht="31.5">
       <c r="B17" s="5" t="s">
         <v>1</v>
@@ -930,17 +934,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="28.5">
+    <row r="18" spans="2:5">
       <c r="B18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -968,13 +972,13 @@
       <c r="B22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -993,21 +997,21 @@
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnnaReportesOperativos4\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783F28F7-E2B5-4968-951F-8A01C4447746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8BB847-C6B4-48C9-8391-471C2A2BBB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E1A8A820-0DC8-4494-B741-8ACF5A2C6F65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1A8A820-0DC8-4494-B741-8ACF5A2C6F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -302,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -389,6 +389,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,6 +467,56 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65942</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1026145</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>121686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC85540-0589-4839-AD8C-9DB6927C5394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1311519" y="6000750"/>
+          <a:ext cx="960203" cy="685859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -770,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849CC9BB-3F6A-4ED2-8708-37259B7D1880}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
@@ -1004,6 +1057,18 @@
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
     </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="31"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="31"/>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="31"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="31"/>
+    </row>
     <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>13</v>
@@ -1014,7 +1079,7 @@
       <c r="E33" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="A7:F7"/>
@@ -1023,6 +1088,7 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B1:D5"/>
     <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B29:B32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8BB847-C6B4-48C9-8391-471C2A2BBB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA62540-8A7E-417D-9D8F-56E8F05C81FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1A8A820-0DC8-4494-B741-8ACF5A2C6F65}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="productoCgn_Items">Hoja1!$B$18:$E$19</definedName>
-    <definedName name="ProductoGlp_Items">Hoja1!$B$14:$E$15</definedName>
-    <definedName name="ProductoGlpCgn_Items">Hoja1!$B$22:$E$23</definedName>
-    <definedName name="ProductoParaReproceso_Items">Hoja1!$B$10:$E$11</definedName>
+    <definedName name="productoCgn_Items">Hoja1!$B$20:$E$21</definedName>
+    <definedName name="ProductoGlp_Items">Hoja1!$B$16:$E$17</definedName>
+    <definedName name="ProductoGlpCgn_Items">Hoja1!$B$25:$E$26</definedName>
+    <definedName name="ProductoParaReproceso_Items">Hoja1!$B$12:$E$13</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>RESUMEN DIARIO DE FISCALIZACION DE PRODUCTOS</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>Observaciones:</t>
+  </si>
+  <si>
+    <t>{{DiaOperativo}}</t>
+  </si>
+  <si>
+    <t>Fecha:</t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,22 +133,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Airal"/>
     </font>
     <font>
       <b/>
@@ -158,8 +152,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -167,14 +160,48 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Airal"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,71 +329,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -384,14 +412,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,13 +518,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>65942</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1026145</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>121686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -821,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849CC9BB-3F6A-4ED2-8708-37259B7D1880}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
@@ -839,256 +882,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="24"/>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="24" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="24"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="24"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="25" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="24"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="27" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="24"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="13" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="24"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="14" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="B9" s="2" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D11" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E11" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1">
-      <c r="B10" s="12" t="s">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="B12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E12" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="12" customHeight="1">
-      <c r="B11" s="8"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:6" ht="12" customHeight="1">
+      <c r="B13" s="20"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+      <c r="B15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E15" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="7" t="s">
+    <row r="16" spans="1:6">
+      <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="12" customHeight="1">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="12" customHeight="1"/>
-    <row r="17" spans="2:5" ht="31.5">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:5" ht="12" customHeight="1">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="2:5" ht="12" customHeight="1"/>
+    <row r="19" spans="2:5">
+      <c r="B19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E19" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="6" t="s">
+    <row r="20" spans="2:5">
+      <c r="B20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15.75">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="21" spans="2:5" ht="30">
-      <c r="B21" s="2" t="s">
+    <row r="21" spans="2:5" ht="15.75">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B23" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E23" s="35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="28.5">
-      <c r="B22" s="6" t="s">
+    <row r="24" spans="2:5" ht="9.75" customHeight="1">
+      <c r="B24" s="34"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="36"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C25" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D25" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E25" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15.75">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="4" t="s">
+    <row r="26" spans="2:5">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:5" ht="12.75" customHeight="1">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="2:5" ht="11.25" customHeight="1"/>
+    <row r="29" spans="2:5">
+      <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="21" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="31"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="31"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="31"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="31"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" t="s">
+      <c r="B33" s="32"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="32"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="32"/>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="32"/>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D37" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="22"/>
+      <c r="E37" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="D33:E33"/>
+  <mergeCells count="13">
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B1:D5"/>
     <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA62540-8A7E-417D-9D8F-56E8F05C81FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE95E21-3402-4247-9E06-23D87D88B2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1A8A820-0DC8-4494-B741-8ACF5A2C6F65}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="productoCgn_Items">Hoja1!$B$20:$E$21</definedName>
-    <definedName name="ProductoGlp_Items">Hoja1!$B$16:$E$17</definedName>
-    <definedName name="ProductoGlpCgn_Items">Hoja1!$B$25:$E$26</definedName>
-    <definedName name="ProductoParaReproceso_Items">Hoja1!$B$12:$E$13</definedName>
+    <definedName name="productoCgn_Items">Hoja1!$B$24:$E$25</definedName>
+    <definedName name="ProductoGlp_Items">Hoja1!$B$19:$E$20</definedName>
+    <definedName name="ProductoGlpCgn_Items">Hoja1!$B$29:$E$32</definedName>
+    <definedName name="ProductoParaReproceso_Items">Hoja1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>RESUMEN DIARIO DE FISCALIZACION DE PRODUCTOS</t>
   </si>
@@ -42,12 +42,6 @@
     <t>TANQUES</t>
   </si>
   <si>
-    <t>NIVELES %</t>
-  </si>
-  <si>
-    <t>INVENTARIO BLS</t>
-  </si>
-  <si>
     <t>Versión / Fecha</t>
   </si>
   <si>
@@ -81,21 +75,6 @@
     <t>PRODUCTOS</t>
   </si>
   <si>
-    <t>DESPACHOS BLS</t>
-  </si>
-  <si>
-    <t>PRODUCCIÓN BLS</t>
-  </si>
-  <si>
-    <t>{{item.Produccion}}</t>
-  </si>
-  <si>
-    <t>{{item.Despacho}}</t>
-  </si>
-  <si>
-    <t>PARA PROCESO</t>
-  </si>
-  <si>
     <t>{{AprobadoPor}}</t>
   </si>
   <si>
@@ -108,13 +87,97 @@
     <t>{{Compania}}</t>
   </si>
   <si>
-    <t>Observaciones:</t>
-  </si>
-  <si>
     <t>{{DiaOperativo}}</t>
   </si>
   <si>
     <t>Fecha:</t>
+  </si>
+  <si>
+    <t>PRODUCTO PARA PROCESO</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>{{ProcesoTanque1}}</t>
+  </si>
+  <si>
+    <t>{{ProcesoTanque2}}</t>
+  </si>
+  <si>
+    <t>{{ProcesoNivel1}}</t>
+  </si>
+  <si>
+    <t>{{ProcesoNivel2}}</t>
+  </si>
+  <si>
+    <t>{{ProcesoInventario1}}</t>
+  </si>
+  <si>
+    <t>{{TotalPRoceso}}</t>
+  </si>
+  <si>
+    <t>{{ProcesoInventario2}}</t>
+  </si>
+  <si>
+    <t>PRODUCCIÓN</t>
+  </si>
+  <si>
+    <t>BLS</t>
+  </si>
+  <si>
+    <t>DESPACHOS</t>
+  </si>
+  <si>
+    <t>INVENTARIO</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>NIVELES</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>________________</t>
+  </si>
+  <si>
+    <t>___________________</t>
+  </si>
+  <si>
+    <t>GLP</t>
+  </si>
+  <si>
+    <t>CGN</t>
+  </si>
+  <si>
+    <t>{{GlpProduccion}}</t>
+  </si>
+  <si>
+    <t>{{CgnProduccion}}</t>
+  </si>
+  <si>
+    <t>{{CgnInventario}}</t>
+  </si>
+  <si>
+    <t>{{CgnDespacho}}</t>
+  </si>
+  <si>
+    <t>{{GlpDespacho}}</t>
+  </si>
+  <si>
+    <t>{{GlpInventario}}</t>
+  </si>
+  <si>
+    <t>{{TotalProduccion}}</t>
+  </si>
+  <si>
+    <t>{{TotalDespacho}}</t>
+  </si>
+  <si>
+    <t>{{TotalInventario}}</t>
   </si>
 </sst>
 </file>
@@ -124,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,30 +202,10 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -203,6 +246,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -298,6 +391,43 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -305,10 +435,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -319,9 +449,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -329,112 +457,209 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,15 +683,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>65942</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>112102</xdr:rowOff>
+      <xdr:colOff>73270</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>148736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1121822</xdr:colOff>
+      <xdr:colOff>1129150</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>121627</xdr:rowOff>
+      <xdr:rowOff>77665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -494,7 +719,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="65942" y="302602"/>
+          <a:off x="73270" y="148736"/>
           <a:ext cx="1055880" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -517,15 +742,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>65942</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:colOff>36636</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1026145</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>121686</xdr:rowOff>
+      <xdr:colOff>996839</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>129012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -554,7 +779,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1311519" y="6000750"/>
+          <a:off x="1282213" y="5942134"/>
           <a:ext cx="960203" cy="685859"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -864,299 +1089,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849CC9BB-3F6A-4ED2-8708-37259B7D1880}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:XFB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:D24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" hidden="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="16382" width="11.42578125" hidden="1"/>
+    <col min="16383" max="16384" width="0.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="25"/>
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:7" ht="12" customHeight="1">
+      <c r="A1" s="66"/>
+      <c r="B1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="58"/>
+    </row>
+    <row r="2" spans="1:7" ht="12" customHeight="1">
+      <c r="A2" s="66"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" ht="12" customHeight="1">
+      <c r="A3" s="66"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4" spans="1:7" ht="12" customHeight="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12" customHeight="1">
+      <c r="A5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+    </row>
+    <row r="8" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
+    <row r="9" spans="1:7">
+      <c r="D9" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
+    <row r="11" spans="1:7" ht="12.95" customHeight="1">
+      <c r="B11" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.95" customHeight="1">
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.95" customHeight="1">
+      <c r="B13" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="25"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="25"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="28" t="s">
+      <c r="E13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.95" customHeight="1">
+      <c r="B14" s="67"/>
+      <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="25"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="5" t="s">
+      <c r="D14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.95" customHeight="1">
+      <c r="B15" s="67"/>
+      <c r="C15" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" ht="12.95" customHeight="1">
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+    </row>
+    <row r="17" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B17" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="25"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5">
-      <c r="A7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="D9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="13" t="s">
+      <c r="D19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="2:6" ht="12.95" customHeight="1"/>
+    <row r="22" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B22" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C22" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1">
-      <c r="B12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="D22" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B23" s="56"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B24" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26" spans="2:6" ht="12.95" customHeight="1"/>
+    <row r="27" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B27" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B28" s="56"/>
+      <c r="C28" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B29" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="34"/>
+    </row>
+    <row r="30" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B30" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B31" s="35"/>
+      <c r="C31" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="34"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="5"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="24"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="24"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="24"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="64"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="12" customHeight="1">
-      <c r="B13" s="20"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
-      <c r="B15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="12" customHeight="1">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="2:5" ht="12" customHeight="1"/>
-    <row r="19" spans="2:5">
-      <c r="B19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="15.75">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="23" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B23" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="9.75" customHeight="1">
-      <c r="B24" s="34"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="36"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="2:5" ht="11.25" customHeight="1"/>
-    <row r="29" spans="2:5">
-      <c r="B29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="22" t="s">
+      <c r="C41" s="31"/>
+      <c r="D41" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="32"/>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="32"/>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="32"/>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="32"/>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="23"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B1:D5"/>
+  <mergeCells count="17">
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B1:E5"/>
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B34:E36"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE95E21-3402-4247-9E06-23D87D88B2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F0605D-5197-4033-A607-67DBD18FD3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1A8A820-0DC8-4494-B741-8ACF5A2C6F65}"/>
   </bookViews>
@@ -16,10 +16,8 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="productoCgn_Items">Hoja1!$B$24:$E$25</definedName>
+    <definedName name="productoCgn_Items">Hoja1!$B$25:$E$26</definedName>
     <definedName name="ProductoGlp_Items">Hoja1!$B$19:$E$20</definedName>
-    <definedName name="ProductoGlpCgn_Items">Hoja1!$B$29:$E$32</definedName>
-    <definedName name="ProductoParaReproceso_Items">Hoja1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
   <si>
     <t>RESUMEN DIARIO DE FISCALIZACION DE PRODUCTOS</t>
   </si>
@@ -178,6 +176,18 @@
   </si>
   <si>
     <t>{{TotalInventario}}</t>
+  </si>
+  <si>
+    <t>{{TotalGlpInventario}}</t>
+  </si>
+  <si>
+    <t>{{TotalGlpNivel}}</t>
+  </si>
+  <si>
+    <t>{{TotalCgnNivel}}</t>
+  </si>
+  <si>
+    <t>{{TotalCgnInventario}}</t>
   </si>
 </sst>
 </file>
@@ -187,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +306,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Airal"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -305,7 +321,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -453,34 +469,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,9 +515,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,83 +593,117 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,13 +786,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>36636</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>996839</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>129012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1089,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849CC9BB-3F6A-4ED2-8708-37259B7D1880}">
-  <dimension ref="A1:XFB41"/>
+  <dimension ref="A1:XFB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
@@ -1109,412 +1152,447 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12" customHeight="1">
-      <c r="A1" s="66"/>
-      <c r="B1" s="65" t="s">
+      <c r="A1" s="70"/>
+      <c r="B1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="57" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="58"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="59" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="60"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="1:7" ht="12" customHeight="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="61" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="26" t="s">
+      <c r="A4" s="70"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="28" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
     </row>
     <row r="8" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
     <row r="9" spans="1:7">
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
     <row r="11" spans="1:7" ht="12.95" customHeight="1">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="12.95" customHeight="1">
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="49" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="12.95" customHeight="1">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="12.95" customHeight="1">
-      <c r="B14" s="67"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="73"/>
+      <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="12.95" customHeight="1">
-      <c r="B15" s="67"/>
-      <c r="C15" s="53" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="30" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="12.95" customHeight="1">
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="41" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="49" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="2:6" ht="12.95" customHeight="1"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B21" s="56"/>
+      <c r="C21" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
     <row r="22" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B23" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C23" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D23" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B23" s="56"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="51" t="s">
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E24" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B24" s="44" t="s">
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B25" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C25" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D25" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E25" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="2:6" ht="12.95" customHeight="1"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B26" s="78"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="17"/>
+    </row>
     <row r="27" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="60"/>
+      <c r="C27" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+    </row>
+    <row r="29" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B29" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C29" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D29" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E29" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B28" s="56"/>
-      <c r="C28" s="49" t="s">
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B30" s="72"/>
+      <c r="C30" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D30" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E30" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B29" s="38" t="s">
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B31" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C31" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D31" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="34"/>
-    </row>
-    <row r="30" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B30" s="41" t="s">
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B32" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C32" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D32" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E32" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B31" s="35"/>
-      <c r="C31" s="36" t="s">
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D33" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E33" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="34"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="5"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="25" t="s">
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="3"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="69" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="24"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="24"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="24"/>
+      <c r="B39" s="18"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="18"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="18"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D42" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="64"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="32" t="s">
+      <c r="E42" s="67"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="63" t="s">
+      <c r="C43" s="25"/>
+      <c r="D43" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="63"/>
-      <c r="F41" s="31"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B36:E38"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="B1:E5"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B34:E36"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F0605D-5197-4033-A607-67DBD18FD3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320ED208-2A61-4BB2-8B14-A9347A46D1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1A8A820-0DC8-4494-B741-8ACF5A2C6F65}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -493,12 +493,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -652,6 +646,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -676,9 +683,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,19 +695,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1134,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849CC9BB-3F6A-4ED2-8708-37259B7D1880}">
   <dimension ref="A1:XFB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
@@ -1152,371 +1158,371 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="12" customHeight="1">
-      <c r="A1" s="70"/>
-      <c r="B1" s="68" t="s">
+      <c r="A1" s="72"/>
+      <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="74" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="75"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="62" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="63"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:7" ht="12" customHeight="1">
-      <c r="A3" s="70"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="64" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="65"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="70"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="20" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="22" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
     </row>
     <row r="8" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
     <row r="9" spans="1:7">
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="37" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
     <row r="11" spans="1:7" ht="12.95" customHeight="1">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="12.95" customHeight="1">
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="42" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="12.95" customHeight="1">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="12.95" customHeight="1">
-      <c r="B14" s="73"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="12.95" customHeight="1">
-      <c r="B15" s="73"/>
-      <c r="C15" s="45" t="s">
+      <c r="B15" s="75"/>
+      <c r="C15" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="12.95" customHeight="1">
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
     </row>
     <row r="17" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="39" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="42" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B20" s="76"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B21" s="56"/>
-      <c r="C21" s="57" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="11"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="44" t="s">
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B26" s="78"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="17"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B27" s="60"/>
-      <c r="C27" s="57" t="s">
+      <c r="B27" s="58"/>
+      <c r="C27" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="55" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
     </row>
     <row r="29" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E29" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="12"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B30" s="72"/>
-      <c r="C30" s="42" t="s">
+      <c r="B30" s="74"/>
+      <c r="C30" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="37" t="s">
+      <c r="E32" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B33" s="29"/>
-      <c r="C33" s="30" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="3"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="1"/>
@@ -1525,57 +1531,58 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="6"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="18"/>
+      <c r="B39" s="16"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="18"/>
+      <c r="B40" s="16"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="18"/>
+      <c r="B41" s="16"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="67" t="s">
+      <c r="D42" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="67"/>
+      <c r="E42" s="70"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="66" t="s">
+      <c r="C43" s="23"/>
+      <c r="D43" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="25"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B36:E38"/>
     <mergeCell ref="F2:G2"/>
@@ -1592,7 +1599,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
+++ b/Unna.OperationalReport.WebSite/wwwroot/plantillas/reporte/diario/FisProductos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SP\UNNA-App\AppOperacionalReporte\UnnaReportesOperativos\Unna.OperationalReport.WebSite\wwwroot\plantillas\reporte\diario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320ED208-2A61-4BB2-8B14-A9347A46D1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E40EC9-C7BC-4F6A-8FB3-962EF1D6B2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1A8A820-0DC8-4494-B741-8ACF5A2C6F65}"/>
   </bookViews>
@@ -139,55 +139,55 @@
     <t>Observaciones</t>
   </si>
   <si>
+    <t>___________________</t>
+  </si>
+  <si>
+    <t>GLP</t>
+  </si>
+  <si>
+    <t>CGN</t>
+  </si>
+  <si>
+    <t>{{GlpProduccion}}</t>
+  </si>
+  <si>
+    <t>{{CgnProduccion}}</t>
+  </si>
+  <si>
+    <t>{{CgnInventario}}</t>
+  </si>
+  <si>
+    <t>{{CgnDespacho}}</t>
+  </si>
+  <si>
+    <t>{{GlpDespacho}}</t>
+  </si>
+  <si>
+    <t>{{GlpInventario}}</t>
+  </si>
+  <si>
+    <t>{{TotalProduccion}}</t>
+  </si>
+  <si>
+    <t>{{TotalDespacho}}</t>
+  </si>
+  <si>
+    <t>{{TotalInventario}}</t>
+  </si>
+  <si>
+    <t>{{TotalGlpInventario}}</t>
+  </si>
+  <si>
+    <t>{{TotalGlpNivel}}</t>
+  </si>
+  <si>
+    <t>{{TotalCgnNivel}}</t>
+  </si>
+  <si>
+    <t>{{TotalCgnInventario}}</t>
+  </si>
+  <si>
     <t>________________</t>
-  </si>
-  <si>
-    <t>___________________</t>
-  </si>
-  <si>
-    <t>GLP</t>
-  </si>
-  <si>
-    <t>CGN</t>
-  </si>
-  <si>
-    <t>{{GlpProduccion}}</t>
-  </si>
-  <si>
-    <t>{{CgnProduccion}}</t>
-  </si>
-  <si>
-    <t>{{CgnInventario}}</t>
-  </si>
-  <si>
-    <t>{{CgnDespacho}}</t>
-  </si>
-  <si>
-    <t>{{GlpDespacho}}</t>
-  </si>
-  <si>
-    <t>{{GlpInventario}}</t>
-  </si>
-  <si>
-    <t>{{TotalProduccion}}</t>
-  </si>
-  <si>
-    <t>{{TotalDespacho}}</t>
-  </si>
-  <si>
-    <t>{{TotalInventario}}</t>
-  </si>
-  <si>
-    <t>{{TotalGlpInventario}}</t>
-  </si>
-  <si>
-    <t>{{TotalGlpNivel}}</t>
-  </si>
-  <si>
-    <t>{{TotalCgnNivel}}</t>
-  </si>
-  <si>
-    <t>{{TotalCgnInventario}}</t>
   </si>
 </sst>
 </file>
@@ -527,9 +527,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -550,9 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,6 +647,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,53 +704,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,56 +784,6 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>36636</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>14653</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>996839</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>129012</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC85540-0589-4839-AD8C-9DB6927C5394}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1282213" y="5942134"/>
-          <a:ext cx="960203" cy="685859"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1140,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849CC9BB-3F6A-4ED2-8708-37259B7D1880}">
   <dimension ref="A1:XFB43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15"/>
@@ -1159,82 +1109,82 @@
   <sheetData>
     <row r="1" spans="1:7" ht="12" customHeight="1">
       <c r="A1" s="72"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="62" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="63"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:7" ht="12" customHeight="1">
       <c r="A2" s="72"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="65" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="66"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="12" customHeight="1">
       <c r="A3" s="72"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="67" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="68"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
       <c r="A4" s="72"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="18" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
       <c r="A5" s="72"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="20" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
     </row>
     <row r="8" spans="1:7" ht="9.9499999999999993" customHeight="1"/>
     <row r="9" spans="1:7">
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="35" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="2"/>
@@ -1247,10 +1197,10 @@
       <c r="C11" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="10"/>
@@ -1258,10 +1208,10 @@
     <row r="12" spans="1:7" ht="12.95" customHeight="1">
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="38" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="10"/>
@@ -1270,10 +1220,10 @@
       <c r="B13" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="62" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1283,10 +1233,10 @@
     </row>
     <row r="14" spans="1:7" ht="12.95" customHeight="1">
       <c r="B14" s="75"/>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="63" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1296,20 +1246,20 @@
     </row>
     <row r="15" spans="1:7" ht="12.95" customHeight="1">
       <c r="B15" s="75"/>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="41" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="12.95" customHeight="1">
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:6" ht="12.95" customHeight="1">
       <c r="B17" s="73" t="s">
@@ -1318,64 +1268,64 @@
       <c r="C17" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="37" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="12.95" customHeight="1">
       <c r="B18" s="74"/>
       <c r="C18" s="74"/>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="38" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="46" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B20" s="59"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55" t="s">
+      <c r="B21" s="52"/>
+      <c r="C21" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="55" t="s">
+      <c r="D21" s="54" t="s">
         <v>49</v>
       </c>
+      <c r="E21" s="53" t="s">
+        <v>48</v>
+      </c>
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="2:6" ht="12.95" customHeight="1">
       <c r="B23" s="73" t="s">
@@ -1384,10 +1334,10 @@
       <c r="C23" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="9"/>
@@ -1395,134 +1345,134 @@
     <row r="24" spans="2:6" ht="12.95" customHeight="1">
       <c r="B24" s="74"/>
       <c r="C24" s="74"/>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="38" t="s">
         <v>30</v>
       </c>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B26" s="61"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="15"/>
     </row>
     <row r="27" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B27" s="58"/>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="55" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="28" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
     </row>
     <row r="29" spans="2:6" ht="12.95" customHeight="1">
       <c r="B29" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="37" t="s">
         <v>32</v>
       </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="2:6" ht="12.95" customHeight="1">
       <c r="B30" s="74"/>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="38" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B32" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C32" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="32" t="s">
+      <c r="D32" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" spans="2:6" ht="12.95" customHeight="1">
+      <c r="B33" s="25"/>
+      <c r="C33" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="26"/>
-    </row>
-    <row r="32" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B32" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="26"/>
-    </row>
-    <row r="33" spans="2:6" ht="12.95" customHeight="1">
-      <c r="B33" s="27"/>
-      <c r="C33" s="28" t="s">
+      <c r="D33" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="E33" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="26"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="3"/>
-      <c r="C34" s="25"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="1"/>
@@ -1531,58 +1481,57 @@
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="16"/>
+      <c r="B39" s="79"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="16"/>
+      <c r="B40" s="79"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="16"/>
+      <c r="B41" s="79"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="70"/>
+      <c r="E42" s="69"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="69" t="s">
+      <c r="C43" s="22"/>
+      <c r="D43" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="69"/>
-      <c r="F43" s="23"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B36:E38"/>
     <mergeCell ref="F2:G2"/>
@@ -1599,6 +1548,7 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
